--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Csf3-Csf3r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Csf3-Csf3r.xlsx
@@ -525,34 +525,34 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G2">
+        <v>0.06796566666666666</v>
+      </c>
+      <c r="H2">
+        <v>0.203897</v>
+      </c>
+      <c r="I2">
+        <v>0.5354438025210083</v>
+      </c>
+      <c r="J2">
+        <v>0.5354438025210083</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G2">
-        <v>0.4316066666666667</v>
-      </c>
-      <c r="H2">
-        <v>1.29482</v>
-      </c>
-      <c r="I2">
-        <v>0.8371581802370878</v>
-      </c>
-      <c r="J2">
-        <v>0.8371581802370878</v>
-      </c>
-      <c r="K2">
-        <v>3</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
       <c r="M2">
-        <v>330.069079</v>
+        <v>0.031135</v>
       </c>
       <c r="N2">
-        <v>990.207237</v>
+        <v>0.093405</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -561,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>142.4600149569267</v>
+        <v>0.002116111031666667</v>
       </c>
       <c r="R2">
-        <v>1282.14013461234</v>
+        <v>0.019044999285</v>
       </c>
       <c r="S2">
-        <v>0.8371581802370878</v>
+        <v>0.5354438025210083</v>
       </c>
       <c r="T2">
-        <v>0.8371581802370878</v>
+        <v>0.5354438025210083</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,28 +593,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.083955</v>
+        <v>0.05896766666666667</v>
       </c>
       <c r="H3">
-        <v>0.251865</v>
+        <v>0.176903</v>
       </c>
       <c r="I3">
-        <v>0.1628418197629123</v>
+        <v>0.4645561974789916</v>
       </c>
       <c r="J3">
-        <v>0.1628418197629123</v>
+        <v>0.4645561974789916</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>330.069079</v>
+        <v>0.031135</v>
       </c>
       <c r="N3">
-        <v>990.207237</v>
+        <v>0.093405</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -623,16 +623,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>27.710949527445</v>
+        <v>0.001835958301666667</v>
       </c>
       <c r="R3">
-        <v>249.398545747005</v>
+        <v>0.016523624715</v>
       </c>
       <c r="S3">
-        <v>0.1628418197629123</v>
+        <v>0.4645561974789916</v>
       </c>
       <c r="T3">
-        <v>0.1628418197629123</v>
+        <v>0.4645561974789916</v>
       </c>
     </row>
   </sheetData>
